--- a/序列信息.xlsx
+++ b/序列信息.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>PvNLP1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,39 +51,94 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>MGPWEAKWIRHSDVRPFPQPEPMTVEEKVAVMLKPELHVSSGCHPYPAVNDLGETNGGLKTTGAPSGMCKGSGWGSQVYGRHASFRGVWAIMYVWYFPKDMPSAHFGHRHDWEHVIVWIEKPVVENVKILAVTPSFHDGYSKQVPPDPSHLNGLAAKFIYESEWPINHALRPTRKGGKKQDLILWEQMSSNARHALNIVPWGAANTPFNDFVFMGRLEKAFPF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MKLPTFLIGFVALLVTSNGSARYVYREDPDDSADPPNPGALHANPILIDVDDVQPFPQPRAITDSQKSALVYKPRLYIKSGCHPYPAVQANGSLSDGLQWKNFLRSPCPGSPKGSQVYSRSDWYEGKWAIMYAWYLPRALDRVTWLVNGHRHYWLWVVVWTDSPDPKTSTLLATSMPGVANNIHKYYPPKSKYVIREKTLKVKSYQNHILFIKHGLELTDRAGDFQDLVTWEQMTDEARAALSTFHRPEHAANPPLQDKRFYEVLEKAYPFDR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MHLCALLIAAAGVLASVRANYVEIDAYTVKPFAQQKPTTDSERSALKYKPHLHVQAGCHPYPAVQRDGSLSAGFEWKEKNSQPCGRSPLGSQVYSRSNWYKEKWAIMYAWYFPKASNHIGRGVSGSRHYWLYAIVWTDDANPTNSSLLGVTLSAGIGLSKHTKLKSKHVIDGTTLKLKSHLSFWGRRLALKFTNKLGETQDLITWEQLPPEAQTALTLDYKLNTPLQDFRFEDLLKEAYPF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MKISNLLGVLVVFLAVVKGQKKDEGSDDSELLALVTVPDGPVIFSIEQVEQVAAPSTDKHLSKLKPKIAYDKVEPFEMAQPSESTITEKAAIKFRPKLYIANGCHAYPAVNKAGQISKGMKTADPTFATCGKPSKGTQVYGRSAWFGTVWAIMYAWYFPDIPLDWEYAIVWTNNPNVSNPVILGVTVSNSEGSTTSQTPPDPAMVDGRSVKIAYNNKGLESSTTLGGTQNLVMWHQLTVEAQEALNKKASFNGVQVPMNDNHFLRNLEASWPFSKEYLQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSRTMQSKRMQNSVAGMPNHSLFLLLPHTRMQFAVFCLLALGNFAYADNIHHVINKLPYDKIKPFPPVQPDCQINEIALQFQPQLHISSGCHPYPAVDAKGYISNGLGVSHTFTDCDGSPEGSQVYGRAYVFKGYLAIMYAWYFPRDYMVTPVWVGHRNAWEHAVLWINDMDDDPKLLAVAAKSMVGYKTYSPPKSKYMDDDSFKLKYKWMVVSHHYLAATKDKGEFQDLIMWDNMTENARISTGPQGWSHYQSPLGDDRFFRALHESYPF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MRVLVLCAAVLTCFVTVSAQEVAYDRIEPFEEVKPDCPLNELALMFKPQLYISNGCHPYPAIDSEGHFSNGLSAFRIGTSCDGSSKGSQVYGRAFYNSDRNIMEIMYAWYFPRDRMITPVYIGHRNAWEHAIVYVDVAKDDPQLLAVAARGMWSYRTYNPPRSDYLDDEKSFKLQYKWIGISHHYLKGTKNPGEFQDLIMWDNMTVKARHNIQEKTWFGSKAPIADDKFFKYLEKARPF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41220 to 41802</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>115274 to 115946</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29086 to 29908</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58288 to 59104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32475 to 33201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>142671 to 143511</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60532 to 61252</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scaffold</t>
   </si>
   <si>
     <t>MLKTRDYVTNGCHPYPAVNDLGEIHNSGLKTKGAPSGMCKGSGWGSQVYGRHALFKGVWAIMYSWYFPKDMPSTDFGHRHDWEHVIVWIEKPVVENVKILAVTPSAHDGYLKQVPPNPSHLHGLAAKINYESKWPINHALEPTGLGGEKQDLILWEQLSSNARHALNIVHWGDANTPFNDYVFMGKLEKAFPL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MGPWEAKWIRHSDVRPFPQPEPMTVEEKVAVMLKPELHVSSGCHPYPAVNDLGETNGGLKTTGAPSGMCKGSGWGSQVYGRHASFRGVWAIMYVWYFPKDMPSAHFGHRHDWEHVIVWIEKPVVENVKILAVTPSFHDGYSKQVPPDPSHLNGLAAKFIYESEWPINHALRPTRKGGKKQDLILWEQMSSNARHALNIVPWGAANTPFNDFVFMGRLEKAFPF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MKLPTFLIGFVALLVTSNGSARYVYREDPDDSADPPNPGALHANPILIDVDDVQPFPQPRAITDSQKSALVYKPRLYIKSGCHPYPAVQANGSLSDGLQWKNFLRSPCPGSPKGSQVYSRSDWYEGKWAIMYAWYLPRALDRVTWLVNGHRHYWLWVVVWTDSPDPKTSTLLATSMPGVANNIHKYYPPKSKYVIREKTLKVKSYQNHILFIKHGLELTDRAGDFQDLVTWEQMTDEARAALSTFHRPEHAANPPLQDKRFYEVLEKAYPFDR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MHLCALLIAAAGVLASVRANYVEIDAYTVKPFAQQKPTTDSERSALKYKPHLHVQAGCHPYPAVQRDGSLSAGFEWKEKNSQPCGRSPLGSQVYSRSNWYKEKWAIMYAWYFPKASNHIGRGVSGSRHYWLYAIVWTDDANPTNSSLLGVTLSAGIGLSKHTKLKSKHVIDGTTLKLKSHLSFWGRRLALKFTNKLGETQDLITWEQLPPEAQTALTLDYKLNTPLQDFRFEDLLKEAYPF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MKISNLLGVLVVFLAVVKGQKKDEGSDDSELLALVTVPDGPVIFSIEQVEQVAAPSTDKHLSKLKPKIAYDKVEPFEMAQPSESTITEKAAIKFRPKLYIANGCHAYPAVNKAGQISKGMKTADPTFATCGKPSKGTQVYGRSAWFGTVWAIMYAWYFPDIPLDWEYAIVWTNNPNVSNPVILGVTVSNSEGSTTSQTPPDPAMVDGRSVKIAYNNKGLESSTTLGGTQNLVMWHQLTVEAQEALNKKASFNGVQVPMNDNHFLRNLEASWPFSKEYLQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MSRTMQSKRMQNSVAGMPNHSLFLLLPHTRMQFAVFCLLALGNFAYADNIHHVINKLPYDKIKPFPPVQPDCQINEIALQFQPQLHISSGCHPYPAVDAKGYISNGLGVSHTFTDCDGSPEGSQVYGRAYVFKGYLAIMYAWYFPRDYMVTPVWVGHRNAWEHAVLWINDMDDDPKLLAVAAKSMVGYKTYSPPKSKYMDDDSFKLKYKWMVVSHHYLAATKDKGEFQDLIMWDNMTENARISTGPQGWSHYQSPLGDDRFFRALHESYPF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MRVLVLCAAVLTCFVTVSAQEVAYDRIEPFEEVKPDCPLNELALMFKPQLYISNGCHPYPAIDSEGHFSNGLSAFRIGTSCDGSSKGSQVYGRAFYNSDRNIMEIMYAWYFPRDRMITPVYIGHRNAWEHAIVYVDVAKDDPQLLAVAARGMWSYRTYNPPRSDYLDDEKSFKLQYKWIGISHHYLKGTKNPGEFQDLIMWDNMTVKARHNIQEKTWFGSKAPIADDKFFKYLEKARPF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sequence</t>
+    <t>signal peptide(probability)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>True(0.6442)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>True(0.8791)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>True(0.9322)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>True(0.9733)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mw(KDa)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -91,7 +146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +167,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,10 +196,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,127 +487,201 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
+        <v>102</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2">
         <v>7.21</v>
       </c>
-      <c r="C2" s="1">
+      <c r="E2" s="2">
         <v>21682.71</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
+        <v>102</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2">
         <v>8.49</v>
       </c>
-      <c r="C3" s="1">
+      <c r="E3" s="2">
         <v>25194.84</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
+        <v>214</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2">
         <v>8.85</v>
       </c>
-      <c r="C4" s="1">
+      <c r="E4" s="2">
         <v>31263.56</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
+        <v>214</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2">
         <v>9.3699999999999992</v>
       </c>
-      <c r="C5" s="1">
+      <c r="E5" s="2">
         <v>27187.05</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
+        <v>935</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2">
         <v>6.44</v>
       </c>
-      <c r="C6" s="1">
+      <c r="E6" s="2">
         <v>30586.880000000001</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
+        <v>998</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2">
         <v>7.21</v>
       </c>
-      <c r="C7" s="1">
+      <c r="E7" s="2">
         <v>31105.54</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
+        <v>998</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2">
         <v>7.04</v>
       </c>
-      <c r="C8" s="1">
+      <c r="E8" s="2">
         <v>27639.56</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
+      <c r="F8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/序列信息.xlsx
+++ b/序列信息.xlsx
@@ -47,7 +47,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>MKLPTFLIGFVALLVTSNGSARYVYREDPDDSADPPNPGALHANPILIDVDDVQPFPQPRAITDSQKSALVYKPRLYIKSGCHPYPAVQANGSLSDGLQWKNFLRSPCPGSPKGSQVYSRSDWYEGKWAIMYAWYLPRALDRVTWLVNGHRHYWLWVVVWTDSPDPKTSTLLATSMPGVANNIHKYYPPKSKYVIREKTLKVKSYQNHILFIKHGLELTDRAGDFQDLVTWEQMTDEARAALSTFHRPEHAANPPLQDKRFYEVLEKAYPFDR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSRTMQSKRMQNSVAGMPNHSLFLLLPHTRMQFAVFCLLALGNFAYADNIHHVINKLPYDKIKPFPPVQPDCQINEIALQFQPQLHISSGCHPYPAVDAKGYISNGLGVSHTFTDCDGSPEGSQVYGRAYVFKGYLAIMYAWYFPRDYMVTPVWVGHRNAWEHAVLWINDMDDDPKLLAVAAKSMVGYKTYSPPKSKYMDDDSFKLKYKWMVVSHHYLAATKDKGEFQDLIMWDNMTENARISTGPQGWSHYQSPLGDDRFFRALHESYPF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MRVLVLCAAVLTCFVTVSAQEVAYDRIEPFEEVKPDCPLNELALMFKPQLYISNGCHPYPAIDSEGHFSNGLSAFRIGTSCDGSSKGSQVYGRAFYNSDRNIMEIMYAWYFPRDRMITPVYIGHRNAWEHAIVYVDVAKDDPQLLAVAARGMWSYRTYNPPRSDYLDDEKSFKLQYKWIGISHHYLKGTKNPGEFQDLIMWDNMTVKARHNIQEKTWFGSKAPIADDKFFKYLEKARPF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41220 to 41802</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>115274 to 115946</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29086 to 29908</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58288 to 59104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32475 to 33201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>142671 to 143511</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60532 to 61252</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLKTRDYVTNGCHPYPAVNDLGEIHNSGLKTKGAPSGMCKGSGWGSQVYGRHALFKGVWAIMYSWYFPKDMPSTDFGHRHDWEHVIVWIEKPVVENVKILAVTPSAHDGYLKQVPPNPSHLHGLAAKINYESKWPINHALEPTGLGGEKQDLILWEQLSSNARHALNIVHWGDANTPFNDYVFMGKLEKAFPL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>True(0.6442)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>True(0.8791)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>True(0.9322)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>True(0.9733)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mw(KDa)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>pI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signal peptide(probability)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scaffold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -55,7 +131,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MKLPTFLIGFVALLVTSNGSARYVYREDPDDSADPPNPGALHANPILIDVDDVQPFPQPRAITDSQKSALVYKPRLYIKSGCHPYPAVQANGSLSDGLQWKNFLRSPCPGSPKGSQVYSRSDWYEGKWAIMYAWYLPRALDRVTWLVNGHRHYWLWVVVWTDSPDPKTSTLLATSMPGVANNIHKYYPPKSKYVIREKTLKVKSYQNHILFIKHGLELTDRAGDFQDLVTWEQMTDEARAALSTFHRPEHAANPPLQDKRFYEVLEKAYPFDR</t>
+    <t>MKISNLLGVLVVFLAVVKGQKKDEGSDDSELLALVTVPDGPVIFSIEQVEQVAAPSTDKHLSKLKPKIAYDKVEPFEMAQPSESTITEKAAIKFRPKLYIANGCHAYPAVNKAGQISKGMKTADPTFATCGKPSKGTQVYGRSAWFGTVWAIMYAWYFPDIPLDWEYAIVWTNNPNVSNPVILGVTVSNSEGSTTSQTPPDPAMVDGRSVKIAYNNKGLESSTTLGGTQNLVMWHQLTVEAQEALNKKASFNGVQVPMNDNHFLRNLEASWPFSKEYLQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -63,82 +139,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MKISNLLGVLVVFLAVVKGQKKDEGSDDSELLALVTVPDGPVIFSIEQVEQVAAPSTDKHLSKLKPKIAYDKVEPFEMAQPSESTITEKAAIKFRPKLYIANGCHAYPAVNKAGQISKGMKTADPTFATCGKPSKGTQVYGRSAWFGTVWAIMYAWYFPDIPLDWEYAIVWTNNPNVSNPVILGVTVSNSEGSTTSQTPPDPAMVDGRSVKIAYNNKGLESSTTLGGTQNLVMWHQLTVEAQEALNKKASFNGVQVPMNDNHFLRNLEASWPFSKEYLQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MSRTMQSKRMQNSVAGMPNHSLFLLLPHTRMQFAVFCLLALGNFAYADNIHHVINKLPYDKIKPFPPVQPDCQINEIALQFQPQLHISSGCHPYPAVDAKGYISNGLGVSHTFTDCDGSPEGSQVYGRAYVFKGYLAIMYAWYFPRDYMVTPVWVGHRNAWEHAVLWINDMDDDPKLLAVAAKSMVGYKTYSPPKSKYMDDDSFKLKYKWMVVSHHYLAATKDKGEFQDLIMWDNMTENARISTGPQGWSHYQSPLGDDRFFRALHESYPF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MRVLVLCAAVLTCFVTVSAQEVAYDRIEPFEEVKPDCPLNELALMFKPQLYISNGCHPYPAIDSEGHFSNGLSAFRIGTSCDGSSKGSQVYGRAFYNSDRNIMEIMYAWYFPRDRMITPVYIGHRNAWEHAIVYVDVAKDDPQLLAVAARGMWSYRTYNPPRSDYLDDEKSFKLQYKWIGISHHYLKGTKNPGEFQDLIMWDNMTVKARHNIQEKTWFGSKAPIADDKFFKYLEKARPF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sequence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>41220 to 41802</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>115274 to 115946</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29086 to 29908</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>58288 to 59104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32475 to 33201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>142671 to 143511</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60532 to 61252</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scaffold</t>
-  </si>
-  <si>
-    <t>MLKTRDYVTNGCHPYPAVNDLGEIHNSGLKTKGAPSGMCKGSGWGSQVYGRHALFKGVWAIMYSWYFPKDMPSTDFGHRHDWEHVIVWIEKPVVENVKILAVTPSAHDGYLKQVPPNPSHLHGLAAKINYESKWPINHALEPTGLGGEKQDLILWEQLSSNARHALNIVHWGDANTPFNDYVFMGKLEKAFPL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>signal peptide(probability)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>True(0.6442)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>True(0.8791)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>True(0.9322)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>True(0.9733)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mw(KDa)</t>
+    <t>Position</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,7 +147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +176,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -196,16 +203,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,199 +501,200 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
     <col min="2" max="2" width="18.5546875" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="5">
         <v>102</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5">
         <v>7.21</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="5">
         <v>21682.71</v>
       </c>
-      <c r="F2" s="2" t="b">
+      <c r="F2" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>25</v>
+      <c r="G2" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="5">
         <v>102</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5">
         <v>8.49</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="5">
         <v>25194.84</v>
       </c>
-      <c r="F3" s="2" t="b">
+      <c r="F3" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
+      <c r="G3" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="5">
         <v>214</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5">
         <v>8.85</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="5">
         <v>31263.56</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="5">
         <v>214</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="E5" s="5">
+        <v>27187.05</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2">
-        <v>9.3699999999999992</v>
-      </c>
-      <c r="E5" s="2">
-        <v>27187.05</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
+      <c r="G5" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="5">
         <v>935</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5">
+        <v>6.44</v>
+      </c>
+      <c r="E6" s="5">
+        <v>30586.880000000001</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2">
-        <v>6.44</v>
-      </c>
-      <c r="E6" s="2">
-        <v>30586.880000000001</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="5">
         <v>998</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5">
         <v>7.21</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="5">
         <v>31105.54</v>
       </c>
-      <c r="F7" s="2" t="b">
+      <c r="F7" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
+      <c r="G7" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="5">
         <v>998</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="5">
+        <v>7.04</v>
+      </c>
+      <c r="E8" s="5">
+        <v>27639.56</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="2">
-        <v>7.04</v>
-      </c>
-      <c r="E8" s="2">
-        <v>27639.56</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>14</v>
+      <c r="G8" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/序列信息.xlsx
+++ b/序列信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -502,7 +502,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G2" sqref="G2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
